--- a/MaterialsRating_Experiment.xlsx
+++ b/MaterialsRating_Experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Neurocinematics\Exp3_KuleshoveEffect\MichaelCao_Analysis\Kuleshove 电影学英文论文（黑白画面）\PLoS One\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA24FE7-4EEA-412A-B9AA-C275F1289A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E3B196-D06B-4D06-8C8D-CFED85188DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="1656" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3624" yWindow="2400" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Face_Valence" sheetId="3" r:id="rId1"/>
@@ -253,7 +253,7 @@
     <t>Scene30</t>
   </si>
   <si>
-    <t>Filling the missing data with mean value from the same condition</t>
+    <t>Filling in the missing data with the mean value from the same condition</t>
   </si>
 </sst>
 </file>
@@ -302,21 +302,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -599,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BC4B7C-8887-4914-8331-BA38E3415672}">
   <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:AK1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,97 +613,97 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -719,7 +714,7 @@
       <c r="B2">
         <v>1.0833333333333299</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2">
@@ -728,7 +723,7 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>32</v>
       </c>
       <c r="H2">
@@ -829,14 +824,14 @@
       <c r="B3">
         <v>-0.25</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>27</v>
       </c>
       <c r="H3">
@@ -937,14 +932,14 @@
       <c r="B4">
         <v>-1</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>29</v>
       </c>
       <c r="H4">
@@ -1045,14 +1040,14 @@
       <c r="B5">
         <v>-8.3333333333333301E-2</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>21</v>
       </c>
       <c r="H5">
@@ -1153,14 +1148,14 @@
       <c r="B6">
         <v>-1.0833333333333299</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>28</v>
       </c>
       <c r="H6">
@@ -1261,14 +1256,14 @@
       <c r="B7">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>29</v>
       </c>
       <c r="H7">
@@ -1369,14 +1364,14 @@
       <c r="B8">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>31</v>
       </c>
       <c r="H8">
@@ -1477,14 +1472,14 @@
       <c r="B9">
         <v>-0.83333333333333304</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>26</v>
       </c>
       <c r="H9">
@@ -1585,14 +1580,14 @@
       <c r="B10">
         <v>0.75</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>28</v>
       </c>
       <c r="H10">
@@ -1693,7 +1688,7 @@
       <c r="B11">
         <v>-1.0833333333333299</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
       <c r="E11">
         <v>10</v>
       </c>
@@ -1801,7 +1796,7 @@
       <c r="B12">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E12">
@@ -1911,7 +1906,7 @@
       <c r="B13">
         <v>0.25</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
       <c r="E13">
         <v>12</v>
       </c>
@@ -2019,7 +2014,7 @@
       <c r="B14">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -2028,11 +2023,11 @@
       <c r="B15">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
       <c r="F15" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <f>AVERAGE(G2:G13)</f>
         <v>26.75</v>
       </c>
@@ -2044,11 +2039,11 @@
       <c r="B16">
         <v>-1.1666666666666701</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="F16" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <f>_xlfn.STDEV.S(G2:G13)</f>
         <v>3.4145410978769766</v>
       </c>
@@ -2060,7 +2055,7 @@
       <c r="B17">
         <v>-1</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -2069,7 +2064,7 @@
       <c r="B18">
         <v>-0.41666666666666702</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -2078,7 +2073,7 @@
       <c r="B19">
         <v>1.5</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -2087,7 +2082,7 @@
       <c r="B20">
         <v>-0.33333333333333298</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -2096,7 +2091,7 @@
       <c r="B21">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -2105,7 +2100,7 @@
       <c r="B22">
         <v>-0.58333333333333304</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2116,7 +2111,7 @@
       <c r="B23">
         <v>-0.5</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -2125,7 +2120,7 @@
       <c r="B24">
         <v>1.75</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -2134,7 +2129,7 @@
       <c r="B25">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -2143,7 +2138,7 @@
       <c r="B26">
         <v>-0.41666666666666702</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -2152,7 +2147,7 @@
       <c r="B27">
         <v>-8.3333333333333301E-2</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -2161,7 +2156,7 @@
       <c r="B28">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -2170,7 +2165,7 @@
       <c r="B29">
         <v>-0.16666666666666699</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -2179,7 +2174,7 @@
       <c r="B30">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -2188,33 +2183,33 @@
       <c r="B31">
         <v>-0.83333333333333304</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="4">
-        <f>AVERAGE(B20:B31)</f>
-        <v>2.0833333333333353E-2</v>
+      <c r="B33" s="2">
+        <f>AVERAGE(B2:B31)</f>
+        <v>-1.9444444444444455E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="4">
-        <f>_xlfn.STDEV.S(B20:B31)</f>
-        <v>0.70989133469194221</v>
+      <c r="B34" s="2">
+        <f>_xlfn.STDEV.S(B2:B31)</f>
+        <v>0.78774234042067492</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <f>B34/SQRT(A31)</f>
-        <v>0.12960783246274216</v>
+        <v>0.14382141645010577</v>
       </c>
     </row>
   </sheetData>
@@ -2232,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CA23AC-3C55-4031-A678-9EFCFB183A80}">
   <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2263,97 +2258,97 @@
       <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" t="s">
         <v>64</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" t="s">
         <v>68</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" t="s">
         <v>69</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" t="s">
         <v>70</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2364,7 +2359,7 @@
       <c r="B2">
         <v>-1.5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2">
@@ -2373,7 +2368,7 @@
       <c r="E2">
         <v>0.41666666666666702</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G2">
@@ -2382,7 +2377,7 @@
       <c r="H2">
         <v>1.9166666666666701</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K2">
@@ -2391,7 +2386,7 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="1">
         <v>32</v>
       </c>
       <c r="N2">
@@ -2492,28 +2487,28 @@
       <c r="B3">
         <v>-3.3333333333333299</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="D3">
         <v>12</v>
       </c>
       <c r="E3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
       <c r="G3">
         <v>22</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="4"/>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>27</v>
       </c>
       <c r="N3">
@@ -2614,28 +2609,28 @@
       <c r="B4">
         <v>-2.25</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4">
         <v>0.41666666666666702</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
       <c r="G4">
         <v>23</v>
       </c>
       <c r="H4">
         <v>1.75</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="4"/>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <v>29</v>
       </c>
       <c r="N4">
@@ -2736,28 +2731,28 @@
       <c r="B5">
         <v>-2.6666666666666701</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5">
         <v>0.25</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
       <c r="G5">
         <v>24</v>
       </c>
       <c r="H5">
         <v>2.1666666666666701</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="4"/>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <v>21</v>
       </c>
       <c r="N5">
@@ -2858,28 +2853,28 @@
       <c r="B6">
         <v>-2.5</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4"/>
       <c r="G6">
         <v>25</v>
       </c>
       <c r="H6">
         <v>3.0833333333333299</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="4"/>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <v>28</v>
       </c>
       <c r="N6">
@@ -2980,28 +2975,28 @@
       <c r="B7">
         <v>-2.7</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7">
         <v>0.41666666666666702</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
       <c r="G7">
         <v>26</v>
       </c>
       <c r="H7">
         <v>2.0833333333333299</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <v>29</v>
       </c>
       <c r="N7">
@@ -3102,28 +3097,28 @@
       <c r="B8">
         <v>-2.6166666666666698</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
       <c r="D8">
         <v>17</v>
       </c>
       <c r="E8">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
       <c r="G8">
         <v>27</v>
       </c>
       <c r="H8">
         <v>2.1666666666666701</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <v>31</v>
       </c>
       <c r="N8">
@@ -3224,28 +3219,28 @@
       <c r="B9">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
       <c r="D9">
         <v>18</v>
       </c>
       <c r="E9">
         <v>1.1666666666666701</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="G9">
         <v>28</v>
       </c>
       <c r="H9">
         <v>1.5833333333333299</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="4"/>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="1">
         <v>26</v>
       </c>
       <c r="N9">
@@ -3346,28 +3341,28 @@
       <c r="B10">
         <v>-0.86666666666666703</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
       <c r="D10">
         <v>19</v>
       </c>
       <c r="E10">
         <v>0.41666666666666702</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
       <c r="G10">
         <v>29</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="4"/>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>28</v>
       </c>
       <c r="N10">
@@ -3385,19 +3380,19 @@
       <c r="R10">
         <v>-2</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="3">
         <v>-2.4</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="3">
         <v>-2.4</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="3">
         <v>-2.4</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="3">
         <v>-2.4</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="3">
         <v>-2.4</v>
       </c>
       <c r="X10">
@@ -3468,21 +3463,21 @@
       <c r="B11">
         <v>-1.2833333333333301</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11">
         <v>0.5</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11">
         <v>30</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
       <c r="K11">
         <v>10</v>
       </c>
@@ -3688,21 +3683,21 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>-2.1916666666666669</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
         <v>0.48333333333333373</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <f>AVERAGE(H2:H11)</f>
         <v>1.9750000000000001</v>
       </c>
@@ -3810,21 +3805,21 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <f>_xlfn.STDEV.S(B2:B11)</f>
         <v>0.75466655215285117</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <f>_xlfn.STDEV.S(E2:E11)</f>
         <v>0.25700074458267613</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <f>_xlfn.STDEV.S(H2:H11)</f>
         <v>0.52418366868733912</v>
       </c>
@@ -3833,28 +3828,28 @@
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <f>B14/SQRT(A11)</f>
         <v>0.23864651787492563</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <f>E14/SQRT(A11)</f>
         <v>8.1270771324043631E-2</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <f>H14/SQRT(A11)</f>
         <v>0.16576143053150758</v>
       </c>
       <c r="L15" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="2">
         <f>AVERAGE(M2:M13)</f>
         <v>26.75</v>
       </c>
@@ -3863,11 +3858,11 @@
       <c r="L16" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="2">
         <f>_xlfn.STDEV.S(M2:M13)</f>
         <v>3.4145410978769766</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3875,7 +3870,7 @@
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="4" t="e">
+      <c r="B33" s="2" t="e">
         <f>AVERAGE(B20:B31)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3884,7 +3879,7 @@
       <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="4" t="e">
+      <c r="B34" s="2" t="e">
         <f>_xlfn.STDEV.S(B20:B31)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3893,7 +3888,7 @@
       <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="4" t="e">
+      <c r="B35" s="2" t="e">
         <f>B34/SQRT(G11)</f>
         <v>#DIV/0!</v>
       </c>

--- a/MaterialsRating_Experiment.xlsx
+++ b/MaterialsRating_Experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Neurocinematics\Exp3_KuleshoveEffect\MichaelCao_Analysis\Kuleshove 电影学英文论文（黑白画面）\PLoS One\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E3B196-D06B-4D06-8C8D-CFED85188DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6A6E29-8131-467C-BD24-458B3D1D994F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="2400" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3516" yWindow="720" windowWidth="26292" windowHeight="15576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Face_Valence" sheetId="3" r:id="rId1"/>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>SubID</t>
   </si>
   <si>
     <t>Gender(1 male, 0 female)</t>
-  </si>
-  <si>
-    <t>Age</t>
   </si>
   <si>
     <t>Fearful</t>
@@ -302,11 +299,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -592,29 +586,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BC4B7C-8887-4914-8331-BA38E3415672}">
-  <dimension ref="A1:AK35"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -703,19 +697,16 @@
       <c r="AJ1" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1.0833333333333299</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -723,56 +714,56 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>32</v>
+      <c r="G2">
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="M2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2">
         <v>2</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V2">
         <v>-2</v>
       </c>
       <c r="W2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -781,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB2">
         <v>-2</v>
       </c>
       <c r="AC2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AD2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -802,64 +793,61 @@
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
         <v>1</v>
       </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>-0.25</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>27</v>
+      <c r="G3">
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K3">
         <v>-1</v>
       </c>
       <c r="L3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -868,25 +856,25 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -898,199 +886,193 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <v>1</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>-1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>29</v>
+      <c r="G4">
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K4">
         <v>-2</v>
       </c>
       <c r="L4">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="N4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="V4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AC4">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AD4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>-8.3333333333333301E-2</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>21</v>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="I5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J5">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>-2</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5">
         <v>-4</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>-2</v>
-      </c>
-      <c r="P5">
-        <v>-1</v>
-      </c>
       <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>-1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
         <v>-4</v>
-      </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>-1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
       </c>
       <c r="V5">
         <v>-4</v>
@@ -1099,103 +1081,100 @@
         <v>-4</v>
       </c>
       <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>-2</v>
+      </c>
+      <c r="AC5">
+        <v>4</v>
+      </c>
+      <c r="AD5">
         <v>-4</v>
       </c>
-      <c r="Y5">
-        <v>4</v>
-      </c>
-      <c r="Z5">
-        <v>2</v>
-      </c>
-      <c r="AA5">
-        <v>2</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>-2</v>
-      </c>
-      <c r="AD5">
-        <v>4</v>
-      </c>
       <c r="AE5">
+        <v>-3</v>
+      </c>
+      <c r="AF5">
         <v>-4</v>
       </c>
-      <c r="AF5">
-        <v>-3</v>
-      </c>
       <c r="AG5">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="AH5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ5">
         <v>-2</v>
       </c>
-      <c r="AK5">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>-1.0833333333333299</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>28</v>
+      <c r="G6">
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J6">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1207,28 +1186,28 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1237,37 +1216,34 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>29</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1288,13 +1264,13 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1333,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1353,53 +1329,50 @@
       <c r="AJ7">
         <v>0</v>
       </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
-        <v>31</v>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K8">
         <v>-1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O8">
         <v>-1</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1408,88 +1381,85 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>-0.83333333333333304</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
-        <v>26</v>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1522,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1546,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1569,29 +1539,26 @@
       <c r="AJ9">
         <v>0</v>
       </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>0.75</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
-        <v>28</v>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -1600,127 +1567,124 @@
         <v>-1</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L10">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>2</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="O10">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>-1</v>
+      </c>
+      <c r="S10">
+        <v>-1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>-3</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>-1</v>
-      </c>
-      <c r="T10">
-        <v>-1</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
       </c>
       <c r="V10">
         <v>-3</v>
       </c>
       <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>-1</v>
+      </c>
+      <c r="AE10">
+        <v>-2</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>-1</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>-3</v>
       </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>-1</v>
-      </c>
-      <c r="AA10">
-        <v>2</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>2</v>
-      </c>
-      <c r="AE10">
-        <v>-1</v>
-      </c>
-      <c r="AF10">
-        <v>-2</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>-1</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>-1.0833333333333299</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
-        <v>24</v>
+      <c r="G11">
+        <v>-1</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1732,52 +1696,52 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1785,19 +1749,16 @@
       <c r="AJ11">
         <v>0</v>
       </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1805,65 +1766,65 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
-        <v>23</v>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J12">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L12">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N12">
+        <v>-2</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>-3</v>
       </c>
-      <c r="O12">
-        <v>-2</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
       <c r="Q12">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S12">
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X12">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1872,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
         <v>1</v>
@@ -1893,160 +1854,140 @@
         <v>1</v>
       </c>
       <c r="AJ12">
-        <v>1</v>
-      </c>
-      <c r="AK12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0.25</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
-        <v>23</v>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J13">
         <v>-1</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L13">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>-2</v>
+      </c>
+      <c r="U13">
+        <v>-2</v>
+      </c>
+      <c r="V13">
+        <v>-2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
         <v>-3</v>
       </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>-2</v>
-      </c>
-      <c r="V13">
-        <v>-2</v>
-      </c>
-      <c r="W13">
-        <v>-2</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>2</v>
-      </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
       <c r="AB13">
+        <v>-2</v>
+      </c>
+      <c r="AC13">
+        <v>-1</v>
+      </c>
+      <c r="AD13">
+        <v>-1</v>
+      </c>
+      <c r="AE13">
+        <v>-1</v>
+      </c>
+      <c r="AF13">
+        <v>-1</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>-1</v>
+      </c>
+      <c r="AI13">
+        <v>-1</v>
+      </c>
+      <c r="AJ13">
         <v>-3</v>
       </c>
-      <c r="AC13">
-        <v>-2</v>
-      </c>
-      <c r="AD13">
-        <v>-1</v>
-      </c>
-      <c r="AE13">
-        <v>-1</v>
-      </c>
-      <c r="AF13">
-        <v>-1</v>
-      </c>
-      <c r="AG13">
-        <v>-1</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>-1</v>
-      </c>
-      <c r="AJ13">
-        <v>-1</v>
-      </c>
-      <c r="AK13">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2">
-        <f>AVERAGE(G2:G13)</f>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>-1.1666666666666701</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2">
-        <f>_xlfn.STDEV.S(G2:G13)</f>
-        <v>3.4145410978769766</v>
-      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -2055,7 +1996,7 @@
       <c r="B17">
         <v>-1</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -2064,7 +2005,7 @@
       <c r="B18">
         <v>-0.41666666666666702</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -2073,7 +2014,7 @@
       <c r="B19">
         <v>1.5</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -2082,7 +2023,7 @@
       <c r="B20">
         <v>-0.33333333333333298</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -2091,7 +2032,7 @@
       <c r="B21">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -2100,8 +2041,8 @@
       <c r="B22">
         <v>-0.58333333333333304</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2111,7 +2052,7 @@
       <c r="B23">
         <v>-0.5</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -2120,7 +2061,7 @@
       <c r="B24">
         <v>1.75</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -2129,7 +2070,7 @@
       <c r="B25">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -2138,7 +2079,7 @@
       <c r="B26">
         <v>-0.41666666666666702</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -2147,7 +2088,7 @@
       <c r="B27">
         <v>-8.3333333333333301E-2</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -2156,7 +2097,7 @@
       <c r="B28">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -2165,7 +2106,7 @@
       <c r="B29">
         <v>-0.16666666666666699</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -2174,7 +2115,7 @@
       <c r="B30">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -2183,31 +2124,31 @@
       <c r="B31">
         <v>-0.83333333333333304</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
         <f>AVERAGE(B2:B31)</f>
         <v>-1.9444444444444455E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="2">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1">
         <f>_xlfn.STDEV.S(B2:B31)</f>
         <v>0.78774234042067492</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1">
         <f>B34/SQRT(A31)</f>
         <v>0.14382141645010577</v>
       </c>
@@ -2225,41 +2166,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CA23AC-3C55-4031-A678-9EFCFB183A80}">
-  <dimension ref="A1:AQ35"/>
+  <dimension ref="A1:AP35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
       </c>
       <c r="N1" t="s">
         <v>42</v>
@@ -2348,19 +2289,16 @@
       <c r="AP1" t="s">
         <v>70</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>-1.5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -2368,8 +2306,8 @@
       <c r="E2">
         <v>0.41666666666666702</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -2377,8 +2315,8 @@
       <c r="H2">
         <v>1.9166666666666701</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -2386,38 +2324,38 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="1">
-        <v>32</v>
+      <c r="M2">
+        <v>-4</v>
       </c>
       <c r="N2">
         <v>-4</v>
       </c>
       <c r="O2">
+        <v>-3</v>
+      </c>
+      <c r="P2">
         <v>-4</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2">
+        <v>-4</v>
+      </c>
+      <c r="S2">
         <v>-3</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>-4</v>
       </c>
-      <c r="R2">
-        <v>-1</v>
-      </c>
-      <c r="S2">
-        <v>-4</v>
-      </c>
-      <c r="T2">
-        <v>-3</v>
-      </c>
       <c r="U2">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="V2">
         <v>-2</v>
       </c>
       <c r="W2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -2435,84 +2373,81 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ2">
         <v>2</v>
       </c>
       <c r="AK2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2">
         <v>3</v>
       </c>
       <c r="AN2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP2">
-        <v>2</v>
-      </c>
-      <c r="AQ2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>-3.3333333333333299</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
       <c r="D3">
         <v>12</v>
       </c>
       <c r="E3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
       <c r="G3">
         <v>22</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="3"/>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="1">
-        <v>27</v>
+      <c r="M3">
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="O3">
         <v>-3</v>
@@ -2533,13 +2468,13 @@
         <v>-3</v>
       </c>
       <c r="U3">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="V3">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="W3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -2551,102 +2486,99 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG3">
         <v>2</v>
       </c>
       <c r="AH3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ3">
         <v>3</v>
       </c>
       <c r="AK3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
+        <v>3</v>
+      </c>
+      <c r="AN3">
+        <v>2</v>
+      </c>
+      <c r="AO3">
         <v>4</v>
       </c>
-      <c r="AM3">
-        <v>2</v>
-      </c>
-      <c r="AN3">
-        <v>3</v>
-      </c>
-      <c r="AO3">
-        <v>2</v>
-      </c>
       <c r="AP3">
-        <v>4</v>
-      </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>-2.25</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4">
         <v>0.41666666666666702</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="3"/>
       <c r="G4">
         <v>23</v>
       </c>
       <c r="H4">
         <v>1.75</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="3"/>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="1">
-        <v>29</v>
+      <c r="M4">
+        <v>-2</v>
       </c>
       <c r="N4">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="O4">
+        <v>-3</v>
+      </c>
+      <c r="P4">
         <v>-4</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-3</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-4</v>
-      </c>
-      <c r="R4">
-        <v>-3</v>
       </c>
       <c r="S4">
         <v>-4</v>
@@ -2655,13 +2587,13 @@
         <v>-4</v>
       </c>
       <c r="U4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="V4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -2691,72 +2623,69 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4">
         <v>1</v>
       </c>
-      <c r="AQ4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>-2.6666666666666701</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5">
         <v>0.25</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
       <c r="G5">
         <v>24</v>
       </c>
       <c r="H5">
         <v>2.1666666666666701</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="3"/>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" s="1">
-        <v>21</v>
+      <c r="M5">
+        <v>-3</v>
       </c>
       <c r="N5">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="O5">
         <v>-4</v>
@@ -2768,58 +2697,58 @@
         <v>-4</v>
       </c>
       <c r="R5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="S5">
         <v>-3</v>
       </c>
       <c r="T5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y5">
         <v>3</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE5">
         <v>2</v>
       </c>
       <c r="AF5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ5">
         <v>4</v>
@@ -2828,72 +2757,69 @@
         <v>4</v>
       </c>
       <c r="AL5">
+        <v>3</v>
+      </c>
+      <c r="AM5">
         <v>4</v>
       </c>
-      <c r="AM5">
-        <v>3</v>
-      </c>
       <c r="AN5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP5">
         <v>3</v>
       </c>
-      <c r="AQ5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>-2.5</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
       <c r="G6">
         <v>25</v>
       </c>
       <c r="H6">
         <v>3.0833333333333299</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="3"/>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="1">
-        <v>28</v>
+      <c r="M6">
+        <v>-2</v>
       </c>
       <c r="N6">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R6">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="S6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -2905,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -2917,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2929,75 +2855,72 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AI6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AM6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP6">
-        <v>-2</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>-2.7</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7">
         <v>0.41666666666666702</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
       <c r="G7">
         <v>26</v>
       </c>
       <c r="H7">
         <v>2.0833333333333299</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="3"/>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" s="1">
-        <v>29</v>
+      <c r="M7">
+        <v>-4</v>
       </c>
       <c r="N7">
         <v>-4</v>
@@ -3009,25 +2932,25 @@
         <v>-4</v>
       </c>
       <c r="Q7">
+        <v>-2</v>
+      </c>
+      <c r="R7">
         <v>-4</v>
-      </c>
-      <c r="R7">
-        <v>-2</v>
       </c>
       <c r="S7">
         <v>-4</v>
       </c>
       <c r="T7">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="U7">
+        <v>-2</v>
+      </c>
+      <c r="V7">
         <v>-3</v>
       </c>
-      <c r="V7">
-        <v>-2</v>
-      </c>
       <c r="W7">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -3057,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH7">
         <v>3</v>
@@ -3066,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="AJ7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK7">
         <v>4</v>
@@ -3078,60 +3001,57 @@
         <v>4</v>
       </c>
       <c r="AN7">
+        <v>3</v>
+      </c>
+      <c r="AO7">
         <v>4</v>
       </c>
-      <c r="AO7">
-        <v>3</v>
-      </c>
       <c r="AP7">
-        <v>4</v>
-      </c>
-      <c r="AQ7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>-2.6166666666666698</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
       <c r="D8">
         <v>17</v>
       </c>
       <c r="E8">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
       <c r="G8">
         <v>27</v>
       </c>
       <c r="H8">
         <v>2.1666666666666701</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="3"/>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="1">
-        <v>31</v>
+      <c r="M8">
+        <v>-2</v>
       </c>
       <c r="N8">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="O8">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="P8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R8">
         <v>-2</v>
@@ -3140,19 +3060,19 @@
         <v>-2</v>
       </c>
       <c r="T8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -3161,102 +3081,99 @@
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AH8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AM8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AN8">
         <v>2</v>
       </c>
       <c r="AO8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1</v>
-      </c>
-      <c r="AQ8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="D9">
         <v>18</v>
       </c>
       <c r="E9">
         <v>1.1666666666666701</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
       <c r="G9">
         <v>28</v>
       </c>
       <c r="H9">
         <v>1.5833333333333299</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="3"/>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="1">
-        <v>26</v>
+      <c r="M9">
+        <v>-1</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>-2</v>
+      </c>
+      <c r="Q9">
+        <v>-2</v>
+      </c>
+      <c r="R9">
         <v>-3</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>-2</v>
-      </c>
-      <c r="R9">
-        <v>-2</v>
       </c>
       <c r="S9">
         <v>-3</v>
@@ -3265,13 +3182,13 @@
         <v>-3</v>
       </c>
       <c r="U9">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="W9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -3301,102 +3218,99 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL9">
         <v>2</v>
       </c>
       <c r="AM9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP9">
-        <v>3</v>
-      </c>
-      <c r="AQ9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>-0.86666666666666703</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="D10">
         <v>19</v>
       </c>
       <c r="E10">
         <v>0.41666666666666702</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
       <c r="G10">
         <v>29</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="3"/>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="1">
-        <v>28</v>
+      <c r="M10">
+        <v>-3</v>
       </c>
       <c r="N10">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="O10">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q10">
         <v>-2</v>
       </c>
-      <c r="R10">
-        <v>-2</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="R10" s="2">
         <v>-2.4</v>
       </c>
-      <c r="T10" s="3">
+      <c r="S10" s="2">
         <v>-2.4</v>
       </c>
-      <c r="U10" s="3">
+      <c r="T10" s="2">
         <v>-2.4</v>
       </c>
-      <c r="V10" s="3">
+      <c r="U10" s="2">
         <v>-2.4</v>
       </c>
-      <c r="W10" s="3">
+      <c r="V10" s="2">
         <v>-2.4</v>
       </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -3414,102 +3328,99 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK10">
         <v>3</v>
       </c>
       <c r="AL10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN10">
         <v>2</v>
       </c>
       <c r="AO10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>3</v>
-      </c>
-      <c r="AQ10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>-1.2833333333333301</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11">
         <v>0.5</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="3"/>
       <c r="G11">
         <v>30</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="3"/>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="1">
-        <v>24</v>
+      <c r="M11">
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="O11">
+        <v>-2</v>
+      </c>
+      <c r="P11">
+        <v>-2</v>
+      </c>
+      <c r="Q11">
         <v>-4</v>
       </c>
-      <c r="P11">
-        <v>-2</v>
-      </c>
-      <c r="Q11">
-        <v>-2</v>
-      </c>
       <c r="R11">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V11">
         <v>-1</v>
@@ -3518,78 +3429,75 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG11">
         <v>-1</v>
       </c>
       <c r="AH11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="1">
-        <v>23</v>
+      <c r="M12">
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="O12">
         <v>-4</v>
@@ -3598,106 +3506,103 @@
         <v>-4</v>
       </c>
       <c r="Q12">
+        <v>-2</v>
+      </c>
+      <c r="R12">
         <v>-4</v>
-      </c>
-      <c r="R12">
-        <v>-2</v>
       </c>
       <c r="S12">
         <v>-4</v>
       </c>
       <c r="T12">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="U12">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="W12">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AD12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG12">
         <v>3</v>
       </c>
       <c r="AH12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI12">
         <v>2</v>
       </c>
       <c r="AJ12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL12">
         <v>4</v>
       </c>
       <c r="AM12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
         <f>AVERAGE(B2:B11)</f>
         <v>-2.1916666666666669</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
         <f>AVERAGE(E2:E11)</f>
         <v>0.48333333333333373</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
         <f>AVERAGE(H2:H11)</f>
         <v>1.9750000000000001</v>
       </c>
@@ -3707,8 +3612,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="1">
-        <v>23</v>
+      <c r="M13">
+        <v>-1</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -3717,79 +3622,79 @@
         <v>-1</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R13">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S13">
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U13">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <v>1</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13">
         <v>2</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
         <v>1</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>2</v>
+      </c>
+      <c r="AI13">
         <v>4</v>
       </c>
-      <c r="AF13">
-        <v>2</v>
-      </c>
-      <c r="AG13">
-        <v>1</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>2</v>
-      </c>
       <c r="AJ13">
+        <v>-1</v>
+      </c>
+      <c r="AK13">
+        <v>3</v>
+      </c>
+      <c r="AL13">
+        <v>-2</v>
+      </c>
+      <c r="AM13">
+        <v>2</v>
+      </c>
+      <c r="AN13">
         <v>4</v>
-      </c>
-      <c r="AK13">
-        <v>-1</v>
-      </c>
-      <c r="AL13">
-        <v>3</v>
-      </c>
-      <c r="AM13">
-        <v>-2</v>
-      </c>
-      <c r="AN13">
-        <v>2</v>
       </c>
       <c r="AO13">
         <v>4</v>
@@ -3797,101 +3702,66 @@
       <c r="AP13">
         <v>4</v>
       </c>
-      <c r="AQ13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
         <f>_xlfn.STDEV.S(B2:B11)</f>
         <v>0.75466655215285117</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
         <f>_xlfn.STDEV.S(E2:E11)</f>
         <v>0.25700074458267613</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="2">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1">
         <f>_xlfn.STDEV.S(H2:H11)</f>
         <v>0.52418366868733912</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
         <f>B14/SQRT(A11)</f>
         <v>0.23864651787492563</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
         <f>E14/SQRT(A11)</f>
         <v>8.1270771324043631E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1">
         <f>H14/SQRT(A11)</f>
         <v>0.16576143053150758</v>
       </c>
-      <c r="L15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="2">
-        <f>AVERAGE(M2:M13)</f>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="L16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="2">
-        <f>_xlfn.STDEV.S(M2:M13)</f>
-        <v>3.4145410978769766</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2" t="e">
-        <f>AVERAGE(B20:B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="2" t="e">
-        <f>_xlfn.STDEV.S(B20:B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2" t="e">
-        <f>B34/SQRT(G11)</f>
-        <v>#DIV/0!</v>
-      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="R16" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
